--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>1004</v>
+        <v>1057</v>
       </c>
       <c r="E3" s="83" t="inlineStr">
         <is>
@@ -1094,11 +1094,11 @@
       </c>
       <c r="I3" s="85" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="J3" s="86" t="n">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="K3" s="87" t="inlineStr">
         <is>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="L3" s="87" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="M3" s="87" t="n">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="N3" s="83" t="inlineStr">
         <is>
@@ -1120,11 +1120,11 @@
       </c>
       <c r="O3" s="83" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="P3" s="83" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="78" t="n"/>
     </row>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>999</v>
+        <v>1051</v>
       </c>
       <c r="E4" s="91" t="inlineStr">
         <is>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="F4" s="91" t="inlineStr">
         <is>
-          <t>ChloeRamdani</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G4" s="91" t="n">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="H4" s="92" t="inlineStr">
         <is>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="I4" s="91" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="J4" s="93" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K4" s="91" t="inlineStr">
         <is>
@@ -1176,11 +1176,11 @@
       </c>
       <c r="L4" s="91" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="M4" s="91" t="n">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="N4" s="91" t="inlineStr">
         <is>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="O4" s="91" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="P4" s="91" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="78" t="n"/>
     </row>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="E5" s="83" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="F5" s="83" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>Mickaplow</t>
         </is>
       </c>
       <c r="G5" s="83" t="n">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="H5" s="97" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="I5" s="83" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="J5" s="98" t="n">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K5" s="83" t="inlineStr">
         <is>
@@ -1245,11 +1245,11 @@
       </c>
       <c r="L5" s="83" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="M5" s="83" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="N5" s="83" t="inlineStr">
         <is>
@@ -1258,11 +1258,11 @@
       </c>
       <c r="O5" s="83" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="P5" s="83" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="78" t="n"/>
     </row>
@@ -1275,11 +1275,11 @@
       </c>
       <c r="C6" s="91" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="D6" s="93" t="n">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
         <is>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="F6" s="91" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>ChloeRamdani</t>
         </is>
       </c>
       <c r="G6" s="91" t="n">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="H6" s="92" t="inlineStr">
         <is>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="I6" s="91" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J6" s="93" t="n">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="K6" s="91" t="inlineStr">
         <is>
@@ -1314,11 +1314,11 @@
       </c>
       <c r="L6" s="91" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="M6" s="91" t="n">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="N6" s="91" t="inlineStr">
         <is>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="O6" s="91" t="inlineStr">
         <is>
-          <t>ARELIANN</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="P6" s="91" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="78" t="n"/>
     </row>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D7" s="98" t="n">
-        <v>867</v>
+        <v>924</v>
       </c>
       <c r="E7" s="83" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="G7" s="83" t="n">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="H7" s="97" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="J7" s="98" t="n">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="K7" s="83" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="L7" s="83" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="M7" s="83" t="n">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="N7" s="83" t="inlineStr">
         <is>
@@ -1413,11 +1413,11 @@
       </c>
       <c r="C8" s="91" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D8" s="93" t="n">
-        <v>840</v>
+        <v>915</v>
       </c>
       <c r="E8" s="91" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="F8" s="91" t="inlineStr">
         <is>
-          <t>Mickaplow</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="G8" s="91" t="n">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="H8" s="92" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="M8" s="91" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N8" s="91" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D9" s="98" t="n">
-        <v>833</v>
+        <v>869</v>
       </c>
       <c r="E9" s="83" t="inlineStr">
         <is>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="F9" s="83" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="G9" s="83" t="n">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="H9" s="97" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="J9" s="98" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K9" s="83" t="inlineStr">
         <is>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="C10" s="91" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D10" s="93" t="n">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="E10" s="91" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="J10" s="93" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K10" s="91" t="inlineStr">
         <is>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="C11" s="83" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="D11" s="98" t="n">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="E11" s="83" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="G11" s="83" t="n">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="H11" s="97" t="inlineStr">
         <is>
@@ -1627,11 +1627,11 @@
       </c>
       <c r="I11" s="83" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="J11" s="98" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="K11" s="83" t="inlineStr">
         <is>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L11" s="83" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="M11" s="83" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N11" s="83" t="n"/>
       <c r="O11" s="83" t="n"/>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="C12" s="91" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="D12" s="93" t="n">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="E12" s="91" t="inlineStr">
         <is>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="F12" s="91" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="G12" s="91" t="n">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="H12" s="92" t="inlineStr">
         <is>
@@ -1686,11 +1686,11 @@
       </c>
       <c r="I12" s="91" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="J12" s="93" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K12" s="91" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="L12" s="91" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M12" s="91" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N12" s="91" t="n"/>
       <c r="O12" s="91" t="n"/>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="D13" s="98" t="n">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="E13" s="83" t="inlineStr">
         <is>
@@ -1732,11 +1732,11 @@
       </c>
       <c r="F13" s="83" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="G13" s="83" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="H13" s="97" t="inlineStr">
         <is>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="I13" s="83" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="J13" s="98" t="n">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="K13" s="100" t="inlineStr">
         <is>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="L13" s="100" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="M13" s="100" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="N13" s="83" t="n"/>
       <c r="O13" s="83" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="A14" s="78" t="n"/>
       <c r="B14" s="101" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 03:54</t>
+          <t>Dernière update le 26.02.25 à 02:54</t>
         </is>
       </c>
       <c r="Q14" s="78" t="n"/>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="E3" s="105" t="inlineStr">
         <is>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="F3" s="105" t="inlineStr">
         <is>
-          <t>DFG_DrFeelgood</t>
+          <t>Brybry_</t>
         </is>
       </c>
       <c r="G3" s="105" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H3" s="106" t="inlineStr">
         <is>
@@ -1911,11 +1911,11 @@
       </c>
       <c r="I3" s="107" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J3" s="108" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K3" s="109" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="L3" s="110" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>CrocodyleTV</t>
         </is>
       </c>
       <c r="M3" s="111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="105" t="inlineStr">
         <is>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="O3" s="105" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="P3" s="105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="103" t="n"/>
     </row>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>346</v>
+        <v>441</v>
       </c>
       <c r="E4" s="112" t="inlineStr">
         <is>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="F4" s="112" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>DFG_DrFeelgood</t>
         </is>
       </c>
       <c r="G4" s="112" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H4" s="113" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="I4" s="112" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J4" s="114" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K4" s="115" t="inlineStr">
         <is>
@@ -1993,11 +1993,11 @@
       </c>
       <c r="L4" s="112" t="inlineStr">
         <is>
-          <t>Hiro_Ammar</t>
+          <t>KennyStream</t>
         </is>
       </c>
       <c r="M4" s="116" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N4" s="112" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="O4" s="112" t="inlineStr">
         <is>
-          <t>Pepito_kawazakii</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="P4" s="112" t="n">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="C5" s="95" t="inlineStr">
         <is>
-          <t>Nikof_</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D5" s="96" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E5" s="105" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G5" s="105" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H5" s="117" t="inlineStr">
         <is>
@@ -2049,11 +2049,11 @@
       </c>
       <c r="I5" s="105" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="J5" s="118" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="119" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="L5" s="105" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="M5" s="120" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N5" s="105" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="O5" s="105" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>Pepito_kawazakii</t>
         </is>
       </c>
       <c r="P5" s="105" t="n">
@@ -2092,11 +2092,11 @@
       </c>
       <c r="C6" s="112" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>Nikof_</t>
         </is>
       </c>
       <c r="D6" s="114" t="n">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="E6" s="112" t="inlineStr">
         <is>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="F6" s="112" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="G6" s="112" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H6" s="113" t="inlineStr">
         <is>
@@ -2118,11 +2118,11 @@
       </c>
       <c r="I6" s="112" t="inlineStr">
         <is>
-          <t>KyriaaTV</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="J6" s="114" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K6" s="115" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="M6" s="116" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N6" s="112" t="inlineStr">
         <is>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="O6" s="112" t="inlineStr">
         <is>
-          <t>ARELIANN</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="P6" s="112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="103" t="n"/>
     </row>
@@ -2161,11 +2161,11 @@
       </c>
       <c r="C7" s="105" t="inlineStr">
         <is>
-          <t>Julgane</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="D7" s="118" t="n">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E7" s="105" t="inlineStr">
         <is>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="F7" s="105" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="G7" s="105" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H7" s="117" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="J7" s="118" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K7" s="119" t="inlineStr">
         <is>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L7" s="105" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Hiro_Ammar</t>
         </is>
       </c>
       <c r="M7" s="120" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N7" s="105" t="inlineStr">
         <is>
@@ -2230,11 +2230,11 @@
       </c>
       <c r="C8" s="112" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>Julgane</t>
         </is>
       </c>
       <c r="D8" s="114" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E8" s="112" t="inlineStr">
         <is>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="F8" s="112" t="inlineStr">
         <is>
-          <t>Brybry_</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="G8" s="112" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" s="113" t="inlineStr">
         <is>
@@ -2256,11 +2256,11 @@
       </c>
       <c r="I8" s="112" t="inlineStr">
         <is>
-          <t>CrocodyleTV</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="J8" s="114" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8" s="115" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="D9" s="118" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E9" s="105" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="G9" s="105" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H9" s="117" t="inlineStr">
         <is>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="I9" s="105" t="inlineStr">
         <is>
-          <t>KennyStream</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="J9" s="118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" s="119" t="inlineStr">
         <is>
@@ -2338,11 +2338,11 @@
       </c>
       <c r="L9" s="105" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="M9" s="120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" s="105" t="n"/>
       <c r="O9" s="105" t="n"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="F10" s="112" t="inlineStr">
         <is>
-          <t>LittleBigWhale</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="G10" s="112" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H10" s="113" t="inlineStr">
         <is>
@@ -2385,11 +2385,11 @@
       </c>
       <c r="I10" s="112" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>KyriaaTV</t>
         </is>
       </c>
       <c r="J10" s="114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" s="115" t="inlineStr">
         <is>
@@ -2431,11 +2431,11 @@
       </c>
       <c r="F11" s="105" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>LittleBigWhale</t>
         </is>
       </c>
       <c r="G11" s="105" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="117" t="inlineStr">
         <is>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="I11" s="105" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="J11" s="118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="119" t="inlineStr">
         <is>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="L11" s="105" t="inlineStr">
         <is>
-          <t>Mynth0s</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="M11" s="120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" s="105" t="n"/>
       <c r="O11" s="105" t="n"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="C12" s="112" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="D12" s="114" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E12" s="112" t="inlineStr">
         <is>
@@ -2490,11 +2490,11 @@
       </c>
       <c r="F12" s="112" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="G12" s="112" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H12" s="113" t="inlineStr">
         <is>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="I12" s="112" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="J12" s="114" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="115" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="L12" s="112" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>Mynth0s</t>
         </is>
       </c>
       <c r="M12" s="116" t="n">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="C13" s="105" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="D13" s="118" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E13" s="105" t="inlineStr">
         <is>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="F13" s="105" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="G13" s="105" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13" s="117" t="inlineStr">
         <is>
@@ -2562,11 +2562,11 @@
       </c>
       <c r="I13" s="105" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="J13" s="118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" s="121" t="inlineStr">
         <is>
@@ -2575,11 +2575,11 @@
       </c>
       <c r="L13" s="122" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M13" s="123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="105" t="n"/>
       <c r="O13" s="105" t="n"/>
@@ -2590,7 +2590,7 @@
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="124" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 03:54</t>
+          <t>Dernière update le 26.02.25 à 02:54</t>
         </is>
       </c>
       <c r="Q14" s="103" t="n"/>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="D3" s="82" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="128" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F3" s="128" t="inlineStr">
         <is>
-          <t>JimmyBoyyy</t>
+          <t>Etoiles</t>
         </is>
       </c>
       <c r="G3" s="128" t="n">
@@ -2762,11 +2762,11 @@
       </c>
       <c r="O3" s="128" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>LuttiLutti</t>
         </is>
       </c>
       <c r="P3" s="128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="126" t="n"/>
     </row>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="C4" s="89" t="inlineStr">
         <is>
-          <t>HexakiI</t>
+          <t>aypierre</t>
         </is>
       </c>
       <c r="D4" s="90" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="135" t="inlineStr">
         <is>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="I4" s="135" t="inlineStr">
         <is>
-          <t>Gom4rt_</t>
+          <t>Terraciid</t>
         </is>
       </c>
       <c r="J4" s="137" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="138" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="O4" s="135" t="inlineStr">
         <is>
-          <t>Horty_</t>
+          <t>ZeratoR</t>
         </is>
       </c>
       <c r="P4" s="135" t="n">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="C5" s="141" t="inlineStr">
         <is>
-          <t>aypierre</t>
+          <t>HexakiI</t>
         </is>
       </c>
       <c r="D5" s="142" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E5" s="128" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F5" s="128" t="inlineStr">
         <is>
-          <t>Fukano</t>
+          <t>AntoineDaniel_</t>
         </is>
       </c>
       <c r="G5" s="128" t="n">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="I5" s="128" t="inlineStr">
         <is>
-          <t>Terraciid</t>
+          <t>gobgg</t>
         </is>
       </c>
       <c r="J5" s="144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="145" t="inlineStr">
         <is>
@@ -2887,11 +2887,11 @@
       </c>
       <c r="L5" s="128" t="inlineStr">
         <is>
-          <t>Angle_Droit</t>
+          <t>Onutrem</t>
         </is>
       </c>
       <c r="M5" s="146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="128" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="O5" s="128" t="inlineStr">
         <is>
-          <t>ARELIANN</t>
+          <t>Horty_</t>
         </is>
       </c>
       <c r="P5" s="128" t="n">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D6" s="137" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E6" s="135" t="inlineStr">
         <is>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="F6" s="135" t="inlineStr">
         <is>
-          <t>MoMaN_uS</t>
+          <t>Fukano</t>
         </is>
       </c>
       <c r="G6" s="135" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="136" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="I6" s="135" t="inlineStr">
         <is>
-          <t>gobgg</t>
+          <t>Gom4rt_</t>
         </is>
       </c>
       <c r="J6" s="137" t="n">
@@ -2956,11 +2956,11 @@
       </c>
       <c r="L6" s="135" t="inlineStr">
         <is>
-          <t>Maxouzboub</t>
+          <t>JLTootmy</t>
         </is>
       </c>
       <c r="M6" s="139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="135" t="inlineStr">
         <is>
@@ -2999,11 +2999,11 @@
       </c>
       <c r="F7" s="128" t="inlineStr">
         <is>
-          <t>NakaStream</t>
+          <t>MoMaN_uS</t>
         </is>
       </c>
       <c r="G7" s="128" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="143" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="L7" s="128" t="inlineStr">
         <is>
-          <t>Onutrem</t>
+          <t>Angle_Droit</t>
         </is>
       </c>
       <c r="M7" s="146" t="n">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="F8" s="135" t="inlineStr">
         <is>
-          <t>AntoineDaniel_</t>
+          <t>NakaStream</t>
         </is>
       </c>
       <c r="G8" s="135" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" s="136" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="J8" s="137" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K8" s="138" t="inlineStr">
         <is>
@@ -3094,11 +3094,11 @@
       </c>
       <c r="L8" s="135" t="inlineStr">
         <is>
-          <t>JLTootmy</t>
+          <t>Maxouzboub</t>
         </is>
       </c>
       <c r="M8" s="139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="135" t="inlineStr">
         <is>
@@ -3137,11 +3137,11 @@
       </c>
       <c r="F9" s="128" t="inlineStr">
         <is>
-          <t>Bytell2</t>
+          <t>Theorus_</t>
         </is>
       </c>
       <c r="G9" s="128" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="143" t="inlineStr">
         <is>
@@ -3150,11 +3150,11 @@
       </c>
       <c r="I9" s="128" t="inlineStr">
         <is>
-          <t>XoTrixy</t>
+          <t>JLKada</t>
         </is>
       </c>
       <c r="J9" s="144" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K9" s="145" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C10" s="135" t="inlineStr">
         <is>
-          <t>_Linca</t>
+          <t>SakorRos</t>
         </is>
       </c>
       <c r="D10" s="137" t="n">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="F10" s="135" t="inlineStr">
         <is>
-          <t>Theorus_</t>
+          <t>Bytell2</t>
         </is>
       </c>
       <c r="G10" s="135" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="136" t="inlineStr">
         <is>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="I10" s="135" t="inlineStr">
         <is>
-          <t>LadySundae</t>
+          <t>XoTrixy</t>
         </is>
       </c>
       <c r="J10" s="137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" s="138" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="L10" s="135" t="inlineStr">
         <is>
-          <t>Elspawn</t>
+          <t>ARELIANN</t>
         </is>
       </c>
       <c r="M10" s="139" t="n">
@@ -3243,11 +3243,11 @@
       </c>
       <c r="C11" s="128" t="inlineStr">
         <is>
-          <t>SakorRos</t>
+          <t>_Linca</t>
         </is>
       </c>
       <c r="D11" s="144" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="128" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="G11" s="128" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H11" s="143" t="inlineStr">
         <is>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="I11" s="128" t="inlineStr">
         <is>
-          <t>Kaatsup</t>
+          <t>LadySundae</t>
         </is>
       </c>
       <c r="J11" s="144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="145" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="L11" s="128" t="inlineStr">
         <is>
-          <t>Wingobear</t>
+          <t>Elspawn</t>
         </is>
       </c>
       <c r="M11" s="146" t="n">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="D12" s="137" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="135" t="inlineStr">
         <is>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="F12" s="135" t="inlineStr">
         <is>
-          <t>nemenems</t>
+          <t>Grimkujow</t>
         </is>
       </c>
       <c r="G12" s="135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" s="136" t="inlineStr">
         <is>
@@ -3328,11 +3328,11 @@
       </c>
       <c r="I12" s="135" t="inlineStr">
         <is>
-          <t>JLKada</t>
+          <t>Kaatsup</t>
         </is>
       </c>
       <c r="J12" s="137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" s="138" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="L12" s="135" t="inlineStr">
         <is>
-          <t>BagheraJones</t>
+          <t>Wingobear</t>
         </is>
       </c>
       <c r="M12" s="139" t="n">
@@ -3361,11 +3361,11 @@
       </c>
       <c r="C13" s="128" t="inlineStr">
         <is>
-          <t>Etoiles</t>
+          <t>JimmyBoyyy</t>
         </is>
       </c>
       <c r="D13" s="144" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="128" t="inlineStr">
         <is>
@@ -3374,11 +3374,11 @@
       </c>
       <c r="F13" s="128" t="inlineStr">
         <is>
-          <t>Grimkujow</t>
+          <t>nemenems</t>
         </is>
       </c>
       <c r="G13" s="128" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="143" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="L13" s="148" t="inlineStr">
         <is>
-          <t>LuttiLutti</t>
+          <t>BagheraJones</t>
         </is>
       </c>
       <c r="M13" s="149" t="n">
@@ -3415,7 +3415,7 @@
       <c r="A14" s="126" t="n"/>
       <c r="B14" s="150" t="inlineStr">
         <is>
-          <t>Dernière update le 25.02.25 à 03:54</t>
+          <t>Dernière update le 26.02.25 à 02:54</t>
         </is>
       </c>
       <c r="Q14" s="126" t="n"/>
